--- a/data/pca/factorExposure/factorExposure_2019-01-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1093103805370981</v>
+        <v>-0.06846878153047316</v>
       </c>
       <c r="C2">
-        <v>0.0004981129017043533</v>
+        <v>-0.03712648890588702</v>
       </c>
       <c r="D2">
-        <v>0.07717921608685413</v>
+        <v>-0.01733101942754065</v>
       </c>
       <c r="E2">
-        <v>0.01648015294288903</v>
+        <v>-0.04304986020933122</v>
       </c>
       <c r="F2">
-        <v>0.1251409341995814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1339868619814807</v>
+      </c>
+      <c r="G2">
+        <v>0.06614015097316353</v>
+      </c>
+      <c r="H2">
+        <v>-0.0524007906928079</v>
+      </c>
+      <c r="I2">
+        <v>0.107241717291643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2162496532205691</v>
+        <v>-0.1600248030423275</v>
       </c>
       <c r="C3">
-        <v>0.1511426861257121</v>
+        <v>-0.1095993038359157</v>
       </c>
       <c r="D3">
-        <v>0.06362142409580429</v>
+        <v>0.009454192542924775</v>
       </c>
       <c r="E3">
-        <v>-0.008657487728602154</v>
+        <v>0.001745752091030162</v>
       </c>
       <c r="F3">
-        <v>0.3342214435524062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3780356142473097</v>
+      </c>
+      <c r="G3">
+        <v>0.2818382709186807</v>
+      </c>
+      <c r="H3">
+        <v>-0.06305794575069268</v>
+      </c>
+      <c r="I3">
+        <v>0.3610304046687102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09604161352988015</v>
+        <v>-0.07180353380229224</v>
       </c>
       <c r="C4">
-        <v>0.0366108624164504</v>
+        <v>-0.05017738803127196</v>
       </c>
       <c r="D4">
-        <v>0.05010032505095413</v>
+        <v>0.01732546682312037</v>
       </c>
       <c r="E4">
-        <v>-0.02764993789112291</v>
+        <v>-0.04099634581529602</v>
       </c>
       <c r="F4">
-        <v>0.06664545968885945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07776501461111202</v>
+      </c>
+      <c r="G4">
+        <v>0.03039558283749074</v>
+      </c>
+      <c r="H4">
+        <v>-0.04867005541280906</v>
+      </c>
+      <c r="I4">
+        <v>0.05538086136122729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02110174116717503</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01054185885291909</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005197971408460008</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005943285749214136</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.008337429559224487</v>
+      </c>
+      <c r="G6">
+        <v>-0.01472156853464279</v>
+      </c>
+      <c r="H6">
+        <v>0.01854899425863452</v>
+      </c>
+      <c r="I6">
+        <v>-0.004008647560466743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04608914944184866</v>
+        <v>-0.03433467172128125</v>
       </c>
       <c r="C7">
-        <v>0.01446935976741561</v>
+        <v>-0.0189472507034829</v>
       </c>
       <c r="D7">
-        <v>0.04456702368037225</v>
+        <v>0.03673310649483481</v>
       </c>
       <c r="E7">
-        <v>0.004627664993376736</v>
+        <v>-0.02846438785057744</v>
       </c>
       <c r="F7">
-        <v>0.05674718291428406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0484939116672528</v>
+      </c>
+      <c r="G7">
+        <v>0.05286729040317172</v>
+      </c>
+      <c r="H7">
+        <v>0.004513770477958286</v>
+      </c>
+      <c r="I7">
+        <v>0.03554135254889561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05454950505573133</v>
+        <v>-0.02834239527749413</v>
       </c>
       <c r="C8">
-        <v>0.05578932000003354</v>
+        <v>-0.0539609676805244</v>
       </c>
       <c r="D8">
-        <v>0.0306498501240459</v>
+        <v>0.01436757739785189</v>
       </c>
       <c r="E8">
-        <v>-0.02599417376796663</v>
+        <v>-0.02156745878188256</v>
       </c>
       <c r="F8">
-        <v>0.06374136001891705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0700026965191152</v>
+      </c>
+      <c r="G8">
+        <v>0.04842051910075919</v>
+      </c>
+      <c r="H8">
+        <v>-0.03690671062386672</v>
+      </c>
+      <c r="I8">
+        <v>0.06495170990572627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08021550032966838</v>
+        <v>-0.06067684547253803</v>
       </c>
       <c r="C9">
-        <v>0.02688549906378688</v>
+        <v>-0.04455258189093432</v>
       </c>
       <c r="D9">
-        <v>0.05122981519614659</v>
+        <v>0.02043716729394448</v>
       </c>
       <c r="E9">
-        <v>-0.0413858138236803</v>
+        <v>-0.03634554125630034</v>
       </c>
       <c r="F9">
-        <v>0.05344762398083576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07803276056523238</v>
+      </c>
+      <c r="G9">
+        <v>0.02856178682412786</v>
+      </c>
+      <c r="H9">
+        <v>-0.04352155975139334</v>
+      </c>
+      <c r="I9">
+        <v>0.03050433294148524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02479893850981186</v>
+        <v>-0.0360087954533666</v>
       </c>
       <c r="C10">
-        <v>-0.1549443590751183</v>
+        <v>0.1618862043260717</v>
       </c>
       <c r="D10">
-        <v>-0.06010897037213254</v>
+        <v>-0.01477698638306312</v>
       </c>
       <c r="E10">
-        <v>0.03825092823320558</v>
+        <v>0.03633628463876319</v>
       </c>
       <c r="F10">
-        <v>0.06804431848144037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0670678127355241</v>
+      </c>
+      <c r="G10">
+        <v>0.02964550420219401</v>
+      </c>
+      <c r="H10">
+        <v>-0.04115044771622747</v>
+      </c>
+      <c r="I10">
+        <v>0.05119673939851362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.06024647978498579</v>
+        <v>-0.04996610650536579</v>
       </c>
       <c r="C11">
-        <v>0.01622621757853018</v>
+        <v>-0.03402373733740931</v>
       </c>
       <c r="D11">
-        <v>0.01117981006128157</v>
+        <v>-0.004356272096357325</v>
       </c>
       <c r="E11">
-        <v>0.007671641948145305</v>
+        <v>-0.01046538174668163</v>
       </c>
       <c r="F11">
-        <v>0.0413991483920793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03696005215149199</v>
+      </c>
+      <c r="G11">
+        <v>0.001245695559496381</v>
+      </c>
+      <c r="H11">
+        <v>-0.01546218138233569</v>
+      </c>
+      <c r="I11">
+        <v>0.02786058988909916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.0486680026548427</v>
+        <v>-0.04443828427884299</v>
       </c>
       <c r="C12">
-        <v>0.02078085177480902</v>
+        <v>-0.03067765978239484</v>
       </c>
       <c r="D12">
-        <v>0.00986706724291592</v>
+        <v>0.007007675669540846</v>
       </c>
       <c r="E12">
-        <v>-0.01026364952914737</v>
+        <v>-0.01079279568034004</v>
       </c>
       <c r="F12">
-        <v>0.02867376461594426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01363329147957965</v>
+      </c>
+      <c r="G12">
+        <v>0.002916359726070764</v>
+      </c>
+      <c r="H12">
+        <v>-0.004853153966476741</v>
+      </c>
+      <c r="I12">
+        <v>0.01620869425936662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06220081051577765</v>
+        <v>-0.04339208124402238</v>
       </c>
       <c r="C13">
-        <v>0.02816045440804429</v>
+        <v>-0.02981566052672171</v>
       </c>
       <c r="D13">
-        <v>0.02724032549640604</v>
+        <v>-0.01324495499493338</v>
       </c>
       <c r="E13">
-        <v>0.02940109804669179</v>
+        <v>-0.01152701823734596</v>
       </c>
       <c r="F13">
-        <v>0.1047984488025902</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1021794770517177</v>
+      </c>
+      <c r="G13">
+        <v>0.03627058824321071</v>
+      </c>
+      <c r="H13">
+        <v>-0.02925481147551759</v>
+      </c>
+      <c r="I13">
+        <v>0.06156700812452343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03693569181464799</v>
+        <v>-0.02689986196784932</v>
       </c>
       <c r="C14">
-        <v>0.02065366358741705</v>
+        <v>-0.02341533287131629</v>
       </c>
       <c r="D14">
-        <v>0.03818975990461829</v>
+        <v>0.006808319920492274</v>
       </c>
       <c r="E14">
-        <v>-0.00380275455264064</v>
+        <v>-0.02941983159006493</v>
       </c>
       <c r="F14">
-        <v>0.01800775758660182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03445646020517416</v>
+      </c>
+      <c r="G14">
+        <v>0.05546074577294227</v>
+      </c>
+      <c r="H14">
+        <v>-0.01177022566470706</v>
+      </c>
+      <c r="I14">
+        <v>0.01768013804547738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05185743650558571</v>
+        <v>-0.0429457183066088</v>
       </c>
       <c r="C16">
-        <v>0.02375137970719527</v>
+        <v>-0.03622453628525848</v>
       </c>
       <c r="D16">
-        <v>0.008877392733210856</v>
+        <v>0.00103003519857313</v>
       </c>
       <c r="E16">
-        <v>0.001765042441232087</v>
+        <v>-0.008139003201252737</v>
       </c>
       <c r="F16">
-        <v>0.03378880770222802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03353644194157545</v>
+      </c>
+      <c r="G16">
+        <v>0.005307160495726359</v>
+      </c>
+      <c r="H16">
+        <v>-0.00476228136391347</v>
+      </c>
+      <c r="I16">
+        <v>0.02854962344347465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06859500721211589</v>
+        <v>-0.05358039766643302</v>
       </c>
       <c r="C19">
-        <v>0.04512233917169579</v>
+        <v>-0.04766857900682724</v>
       </c>
       <c r="D19">
-        <v>0.0276228633189862</v>
+        <v>-0.0008203423778221073</v>
       </c>
       <c r="E19">
-        <v>0.000213347011527135</v>
+        <v>-0.02319067930762362</v>
       </c>
       <c r="F19">
-        <v>0.07714994148348517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.08883588975761755</v>
+      </c>
+      <c r="G19">
+        <v>0.05893575687109127</v>
+      </c>
+      <c r="H19">
+        <v>-0.01646223321210132</v>
+      </c>
+      <c r="I19">
+        <v>0.06719219275257701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03472270122233027</v>
+        <v>-0.0200006203023908</v>
       </c>
       <c r="C20">
-        <v>0.03149981455674929</v>
+        <v>-0.03125052026588972</v>
       </c>
       <c r="D20">
-        <v>0.04340656263246974</v>
+        <v>0.006921746497568868</v>
       </c>
       <c r="E20">
-        <v>-0.01709083527992506</v>
+        <v>-0.0217943229834692</v>
       </c>
       <c r="F20">
-        <v>0.06251979120344259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06262312184511111</v>
+      </c>
+      <c r="G20">
+        <v>0.05732550193862691</v>
+      </c>
+      <c r="H20">
+        <v>-0.007697140273536107</v>
+      </c>
+      <c r="I20">
+        <v>0.07650498690672441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03871129226200461</v>
+        <v>-0.03375246272611439</v>
       </c>
       <c r="C21">
-        <v>0.03775174980665712</v>
+        <v>-0.03251938282769891</v>
       </c>
       <c r="D21">
-        <v>0.01948510120456022</v>
+        <v>0.01301955560527587</v>
       </c>
       <c r="E21">
-        <v>0.007267973435367158</v>
+        <v>-0.007948124824549414</v>
       </c>
       <c r="F21">
-        <v>0.09726974209069808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07915417694482524</v>
+      </c>
+      <c r="G21">
+        <v>0.02293707649281279</v>
+      </c>
+      <c r="H21">
+        <v>-0.04763320539535802</v>
+      </c>
+      <c r="I21">
+        <v>0.002793425799590237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05078448045013821</v>
+        <v>-0.04166279657754471</v>
       </c>
       <c r="C24">
-        <v>0.02166615675437881</v>
+        <v>-0.0319681403250049</v>
       </c>
       <c r="D24">
-        <v>0.01692244344505493</v>
+        <v>0.001620336077657322</v>
       </c>
       <c r="E24">
-        <v>-0.003295479132156312</v>
+        <v>-0.01143628127005914</v>
       </c>
       <c r="F24">
-        <v>0.04352250736074546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03690433884957091</v>
+      </c>
+      <c r="G24">
+        <v>-6.273632407722972e-05</v>
+      </c>
+      <c r="H24">
+        <v>-0.007882718217882709</v>
+      </c>
+      <c r="I24">
+        <v>0.02972685626378452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05301329517884207</v>
+        <v>-0.04855876412906849</v>
       </c>
       <c r="C25">
-        <v>0.01625428890516837</v>
+        <v>-0.02836475866893001</v>
       </c>
       <c r="D25">
-        <v>0.01167674097879074</v>
+        <v>0.0005605753204486838</v>
       </c>
       <c r="E25">
-        <v>-0.001135461220593709</v>
+        <v>-0.009731686248398593</v>
       </c>
       <c r="F25">
-        <v>0.04040714959114152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04245854287752555</v>
+      </c>
+      <c r="G25">
+        <v>0.0005175281373897216</v>
+      </c>
+      <c r="H25">
+        <v>-0.01389117155886753</v>
+      </c>
+      <c r="I25">
+        <v>0.01979802511916214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02831194376020032</v>
+        <v>-0.01880206048175418</v>
       </c>
       <c r="C26">
-        <v>0.03017127141684691</v>
+        <v>-0.02990305074851754</v>
       </c>
       <c r="D26">
-        <v>0.02294071697167456</v>
+        <v>-0.003207963312544632</v>
       </c>
       <c r="E26">
-        <v>0.01894332666977022</v>
+        <v>-0.003719855573338381</v>
       </c>
       <c r="F26">
-        <v>0.02912577258715924</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04185269487218295</v>
+      </c>
+      <c r="G26">
+        <v>0.03282164826767553</v>
+      </c>
+      <c r="H26">
+        <v>-0.01173421090121344</v>
+      </c>
+      <c r="I26">
+        <v>0.02324970446832643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.120530334394484</v>
+        <v>-0.07240028100540979</v>
       </c>
       <c r="C27">
-        <v>0.01882077132329107</v>
+        <v>-0.02705152472123768</v>
       </c>
       <c r="D27">
-        <v>0.04024568439408562</v>
+        <v>0.005774344856485729</v>
       </c>
       <c r="E27">
-        <v>-0.0252298591789747</v>
+        <v>-0.03438441741231153</v>
       </c>
       <c r="F27">
-        <v>0.07542121546202323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.06425519614011091</v>
+      </c>
+      <c r="G27">
+        <v>0.02159545386584808</v>
+      </c>
+      <c r="H27">
+        <v>-0.02617712468839628</v>
+      </c>
+      <c r="I27">
+        <v>0.03824289752076026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02503625070422338</v>
+        <v>-0.05194648860469576</v>
       </c>
       <c r="C28">
-        <v>-0.2300544912677751</v>
+        <v>0.2453633599431528</v>
       </c>
       <c r="D28">
-        <v>-0.100692659549145</v>
+        <v>-0.01402187916428305</v>
       </c>
       <c r="E28">
-        <v>0.03694359366608851</v>
+        <v>0.05214016789458959</v>
       </c>
       <c r="F28">
-        <v>0.04961291278350673</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0587824105986169</v>
+      </c>
+      <c r="G28">
+        <v>0.04038105932675178</v>
+      </c>
+      <c r="H28">
+        <v>-0.04310385669828164</v>
+      </c>
+      <c r="I28">
+        <v>0.07501578199751481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.03226016022332646</v>
+        <v>-0.02365524503467876</v>
       </c>
       <c r="C29">
-        <v>0.01865016074352562</v>
+        <v>-0.02038547353471011</v>
       </c>
       <c r="D29">
-        <v>0.03479899778538936</v>
+        <v>0.00984430948163228</v>
       </c>
       <c r="E29">
-        <v>-0.01551084228983286</v>
+        <v>-0.02993116983329816</v>
       </c>
       <c r="F29">
-        <v>0.01809937584883358</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03091275095878092</v>
+      </c>
+      <c r="G29">
+        <v>0.05607409583246543</v>
+      </c>
+      <c r="H29">
+        <v>-0.01542912840445183</v>
+      </c>
+      <c r="I29">
+        <v>0.002988950988795923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1156543940054513</v>
+        <v>-0.08982485785417496</v>
       </c>
       <c r="C30">
-        <v>0.02164299098621093</v>
+        <v>-0.05443425079156751</v>
       </c>
       <c r="D30">
-        <v>0.04386987675204451</v>
+        <v>-0.03498818036791958</v>
       </c>
       <c r="E30">
-        <v>0.007384942388925708</v>
+        <v>-0.03512999443602626</v>
       </c>
       <c r="F30">
-        <v>0.1040285143139397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1035974198705419</v>
+      </c>
+      <c r="G30">
+        <v>0.0144922939697539</v>
+      </c>
+      <c r="H30">
+        <v>0.007005492736854337</v>
+      </c>
+      <c r="I30">
+        <v>0.02504601564792506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.07019844538973893</v>
+        <v>-0.06090330782628318</v>
       </c>
       <c r="C31">
-        <v>0.01442967137837117</v>
+        <v>-0.02409042104769966</v>
       </c>
       <c r="D31">
-        <v>0.02941867814995143</v>
+        <v>-0.008802111293788968</v>
       </c>
       <c r="E31">
-        <v>0.0319500277319934</v>
+        <v>-0.02427888380256327</v>
       </c>
       <c r="F31">
-        <v>-0.03812781731005022</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.00614866868059565</v>
+      </c>
+      <c r="G31">
+        <v>0.04839252031109088</v>
+      </c>
+      <c r="H31">
+        <v>-0.03084048348416901</v>
+      </c>
+      <c r="I31">
+        <v>0.01306876368597427</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0724635920571806</v>
+        <v>-0.04298304111337101</v>
       </c>
       <c r="C32">
-        <v>0.03804204606341176</v>
+        <v>-0.04787655292709458</v>
       </c>
       <c r="D32">
-        <v>0.04058008086559611</v>
+        <v>0.017698965927088</v>
       </c>
       <c r="E32">
-        <v>-0.01424812741972229</v>
+        <v>-0.03688356900603199</v>
       </c>
       <c r="F32">
-        <v>0.08673699543261479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.081397439021059</v>
+      </c>
+      <c r="G32">
+        <v>0.04073762698158793</v>
+      </c>
+      <c r="H32">
+        <v>-0.02578339403028386</v>
+      </c>
+      <c r="I32">
+        <v>0.05174566397364076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.07137765616389928</v>
+        <v>-0.05621641341644393</v>
       </c>
       <c r="C33">
-        <v>0.05565884555728841</v>
+        <v>-0.0581652654863456</v>
       </c>
       <c r="D33">
-        <v>0.04017454545311991</v>
+        <v>-0.01637424798730472</v>
       </c>
       <c r="E33">
-        <v>0.01420402103899091</v>
+        <v>-0.01464747596470948</v>
       </c>
       <c r="F33">
-        <v>0.06340295670505672</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07195008999520362</v>
+      </c>
+      <c r="G33">
+        <v>0.04283833877609399</v>
+      </c>
+      <c r="H33">
+        <v>-0.03658301424020366</v>
+      </c>
+      <c r="I33">
+        <v>0.03033076353231414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05137866804333093</v>
+        <v>-0.04336769780916034</v>
       </c>
       <c r="C34">
-        <v>0.01981073538462412</v>
+        <v>-0.0354941002336772</v>
       </c>
       <c r="D34">
-        <v>0.01772992568859422</v>
+        <v>0.005869314048971256</v>
       </c>
       <c r="E34">
-        <v>-0.002434705388053645</v>
+        <v>-0.01698421340773484</v>
       </c>
       <c r="F34">
-        <v>0.02724252714583282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03259517058167809</v>
+      </c>
+      <c r="G34">
+        <v>0.00807277795385318</v>
+      </c>
+      <c r="H34">
+        <v>-0.008295345935451176</v>
+      </c>
+      <c r="I34">
+        <v>0.0243545747063732</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01822191034879847</v>
+        <v>-0.01594919762723354</v>
       </c>
       <c r="C36">
-        <v>0.002204124425849512</v>
+        <v>-0.00661528310439242</v>
       </c>
       <c r="D36">
-        <v>0.01379026303627223</v>
+        <v>0.004845919899663973</v>
       </c>
       <c r="E36">
-        <v>-0.005560728346676664</v>
+        <v>-0.01089528904996686</v>
       </c>
       <c r="F36">
-        <v>0.01376383451308946</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0236746063048733</v>
+      </c>
+      <c r="G36">
+        <v>0.03881399849356611</v>
+      </c>
+      <c r="H36">
+        <v>-0.01801878571930601</v>
+      </c>
+      <c r="I36">
+        <v>-0.007852023400946805</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04486753971399873</v>
+        <v>-0.03453088197899572</v>
       </c>
       <c r="C38">
-        <v>0.01410921595969705</v>
+        <v>-0.01707191437870842</v>
       </c>
       <c r="D38">
-        <v>0.02164532679261726</v>
+        <v>0.004500847906362163</v>
       </c>
       <c r="E38">
-        <v>-0.01920889557656711</v>
+        <v>-0.01256429694977169</v>
       </c>
       <c r="F38">
-        <v>0.0180620655815972</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04750151943300975</v>
+      </c>
+      <c r="G38">
+        <v>0.02918960792396416</v>
+      </c>
+      <c r="H38">
+        <v>-0.02338728011415566</v>
+      </c>
+      <c r="I38">
+        <v>-0.01049246360091984</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07232263147970591</v>
+        <v>-0.05455411172504072</v>
       </c>
       <c r="C39">
-        <v>0.0209118593247498</v>
+        <v>-0.0487898554783417</v>
       </c>
       <c r="D39">
-        <v>0.02513212876817038</v>
+        <v>-0.003298917305394799</v>
       </c>
       <c r="E39">
-        <v>0.01427788811211573</v>
+        <v>-0.02007339868096981</v>
       </c>
       <c r="F39">
-        <v>0.03418161032443928</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05439207216513799</v>
+      </c>
+      <c r="G39">
+        <v>-0.002457653001750933</v>
+      </c>
+      <c r="H39">
+        <v>-0.02202938685228397</v>
+      </c>
+      <c r="I39">
+        <v>0.007558243412848996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07642738049518291</v>
+        <v>-0.05564148755076098</v>
       </c>
       <c r="C40">
-        <v>0.02189893635441451</v>
+        <v>-0.04486888814889974</v>
       </c>
       <c r="D40">
-        <v>0.05903963522823325</v>
+        <v>-0.01943813080234629</v>
       </c>
       <c r="E40">
-        <v>0.03418985017424921</v>
+        <v>-0.02663396517756042</v>
       </c>
       <c r="F40">
-        <v>0.1050297490267742</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.09471473360283951</v>
+      </c>
+      <c r="G40">
+        <v>0.0368661258246327</v>
+      </c>
+      <c r="H40">
+        <v>-0.02760352203858682</v>
+      </c>
+      <c r="I40">
+        <v>0.1068009136042783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.004071517293479593</v>
+        <v>-0.003492824639810201</v>
       </c>
       <c r="C41">
-        <v>0.02440002730050933</v>
+        <v>-0.0110468051906813</v>
       </c>
       <c r="D41">
-        <v>0.03003503185086714</v>
+        <v>-2.311112399619334e-05</v>
       </c>
       <c r="E41">
-        <v>-0.006530882866207357</v>
+        <v>-0.01051543754667047</v>
       </c>
       <c r="F41">
-        <v>-0.009895692246958104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.009614126685327707</v>
+      </c>
+      <c r="G41">
+        <v>0.04801064471211874</v>
+      </c>
+      <c r="H41">
+        <v>-0.03452302760103593</v>
+      </c>
+      <c r="I41">
+        <v>0.01263438372251001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.2014458441807064</v>
+        <v>-0.2280036716724415</v>
       </c>
       <c r="C42">
-        <v>0.471696625899966</v>
+        <v>-0.2608190545565336</v>
       </c>
       <c r="D42">
-        <v>-0.7890866884548368</v>
+        <v>-0.0396375046788804</v>
       </c>
       <c r="E42">
-        <v>0.254268685296151</v>
+        <v>0.9068136540684733</v>
       </c>
       <c r="F42">
-        <v>-0.0492231167766852</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1599105462829039</v>
+      </c>
+      <c r="G42">
+        <v>-0.002196947581004752</v>
+      </c>
+      <c r="H42">
+        <v>0.008737198095330216</v>
+      </c>
+      <c r="I42">
+        <v>0.05575431905720897</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007847858293384335</v>
+        <v>-0.008818690055178439</v>
       </c>
       <c r="C43">
-        <v>0.02507448592288882</v>
+        <v>-0.014384239314131</v>
       </c>
       <c r="D43">
-        <v>0.03235346541872932</v>
+        <v>-0.002537734121121512</v>
       </c>
       <c r="E43">
-        <v>-0.001968345347590925</v>
+        <v>-0.01030529663472034</v>
       </c>
       <c r="F43">
-        <v>0.02088387232304041</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02408295426587224</v>
+      </c>
+      <c r="G43">
+        <v>0.03503436627076421</v>
+      </c>
+      <c r="H43">
+        <v>-0.01988870924756379</v>
+      </c>
+      <c r="I43">
+        <v>0.02269720250253854</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04723876996558109</v>
+        <v>-0.03096967253952055</v>
       </c>
       <c r="C44">
-        <v>0.04726997350937444</v>
+        <v>-0.04417458195386354</v>
       </c>
       <c r="D44">
-        <v>0.04317989898948865</v>
+        <v>0.003708226413010259</v>
       </c>
       <c r="E44">
-        <v>0.005834743002796992</v>
+        <v>-0.01858378331193944</v>
       </c>
       <c r="F44">
-        <v>0.1046776753645616</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.116032595856403</v>
+      </c>
+      <c r="G44">
+        <v>0.09040813590249537</v>
+      </c>
+      <c r="H44">
+        <v>-0.04802919284129125</v>
+      </c>
+      <c r="I44">
+        <v>0.05458524535394189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03365619166608449</v>
+        <v>-0.02663574981165032</v>
       </c>
       <c r="C46">
-        <v>0.02295422010117614</v>
+        <v>-0.03642534273442792</v>
       </c>
       <c r="D46">
-        <v>0.03842387501177985</v>
+        <v>-0.002281291431245613</v>
       </c>
       <c r="E46">
-        <v>-0.0003027445456107547</v>
+        <v>-0.03282432806490167</v>
       </c>
       <c r="F46">
-        <v>0.01535173724935194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04286174860318094</v>
+      </c>
+      <c r="G46">
+        <v>0.05953118227686106</v>
+      </c>
+      <c r="H46">
+        <v>-0.01279322559836085</v>
+      </c>
+      <c r="I46">
+        <v>0.009098619421349307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0966879320743915</v>
+        <v>-0.08677026370948966</v>
       </c>
       <c r="C47">
-        <v>0.008064724454615192</v>
+        <v>-0.02017783415576521</v>
       </c>
       <c r="D47">
-        <v>0.02869588905286722</v>
+        <v>-0.00383338361526263</v>
       </c>
       <c r="E47">
-        <v>-0.002859881234165868</v>
+        <v>-0.0294722093971629</v>
       </c>
       <c r="F47">
-        <v>-0.03263046281728428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01863959909559157</v>
+      </c>
+      <c r="G47">
+        <v>0.06461292003071391</v>
+      </c>
+      <c r="H47">
+        <v>-0.02389765522728542</v>
+      </c>
+      <c r="I47">
+        <v>0.03470148046109706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02208452879221836</v>
+        <v>-0.02078884148374424</v>
       </c>
       <c r="C48">
-        <v>0.02096218919826359</v>
+        <v>-0.0182896074369846</v>
       </c>
       <c r="D48">
-        <v>0.02468208974897002</v>
+        <v>0.001346320289147696</v>
       </c>
       <c r="E48">
-        <v>0.001377520872690332</v>
+        <v>-0.01426425483125003</v>
       </c>
       <c r="F48">
-        <v>0.01837937598703086</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02551470574180271</v>
+      </c>
+      <c r="G48">
+        <v>0.02836499215925651</v>
+      </c>
+      <c r="H48">
+        <v>-0.01602475854721564</v>
+      </c>
+      <c r="I48">
+        <v>0.0101129717227619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09388857380047273</v>
+        <v>-0.08835082666412457</v>
       </c>
       <c r="C50">
-        <v>0.02910760480184939</v>
+        <v>-0.03975428177878097</v>
       </c>
       <c r="D50">
-        <v>0.03192780267799171</v>
+        <v>0.01176289660526618</v>
       </c>
       <c r="E50">
-        <v>0.006562795913668146</v>
+        <v>-0.02701414132177173</v>
       </c>
       <c r="F50">
-        <v>-0.03171858976872408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0115003164059084</v>
+      </c>
+      <c r="G50">
+        <v>0.03858117734826683</v>
+      </c>
+      <c r="H50">
+        <v>0.01232194157205505</v>
+      </c>
+      <c r="I50">
+        <v>-0.004113909137302474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05885026220320554</v>
+        <v>-0.03960282811505177</v>
       </c>
       <c r="C51">
-        <v>-0.01204936047364519</v>
+        <v>0.002599441785423103</v>
       </c>
       <c r="D51">
-        <v>0.02322615213882999</v>
+        <v>-0.0111810390986922</v>
       </c>
       <c r="E51">
-        <v>0.0339949154616882</v>
+        <v>-0.01181088895025621</v>
       </c>
       <c r="F51">
-        <v>0.06077210668766761</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.09106991188922005</v>
+      </c>
+      <c r="G51">
+        <v>0.07089051011830791</v>
+      </c>
+      <c r="H51">
+        <v>-0.04975855436065358</v>
+      </c>
+      <c r="I51">
+        <v>0.03093411781000329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.135545773208369</v>
+        <v>-0.1242805533883824</v>
       </c>
       <c r="C53">
-        <v>0.0106318283536469</v>
+        <v>-0.03787979774367305</v>
       </c>
       <c r="D53">
-        <v>0.0570173453720031</v>
+        <v>-0.00393452418531447</v>
       </c>
       <c r="E53">
-        <v>0.004989154480736216</v>
+        <v>-0.05564450127075665</v>
       </c>
       <c r="F53">
-        <v>-0.06416055118273936</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04935725305979632</v>
+      </c>
+      <c r="G53">
+        <v>0.01295977262310197</v>
+      </c>
+      <c r="H53">
+        <v>-0.03075520007783243</v>
+      </c>
+      <c r="I53">
+        <v>0.04088392984183969</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02922169536458024</v>
+        <v>-0.02682493371352609</v>
       </c>
       <c r="C54">
-        <v>0.004183994728094846</v>
+        <v>-0.007045934826136406</v>
       </c>
       <c r="D54">
-        <v>0.03197766533684322</v>
+        <v>0.004904215389038325</v>
       </c>
       <c r="E54">
-        <v>-0.006605780099757079</v>
+        <v>-0.03062533879381745</v>
       </c>
       <c r="F54">
-        <v>0.01987839447493367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02947215911552441</v>
+      </c>
+      <c r="G54">
+        <v>0.05521899229997276</v>
+      </c>
+      <c r="H54">
+        <v>-0.03089512412135525</v>
+      </c>
+      <c r="I54">
+        <v>0.00343929329405892</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1064693015177501</v>
+        <v>-0.09757245396613094</v>
       </c>
       <c r="C55">
-        <v>-0.006203648734575022</v>
+        <v>-0.03143127756574061</v>
       </c>
       <c r="D55">
-        <v>0.02957642358900487</v>
+        <v>0.01396827266932095</v>
       </c>
       <c r="E55">
-        <v>-0.04162791941836101</v>
+        <v>-0.03858325284185841</v>
       </c>
       <c r="F55">
-        <v>-0.02307024191803672</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.03688882741620417</v>
+      </c>
+      <c r="G55">
+        <v>0.01865794518910125</v>
+      </c>
+      <c r="H55">
+        <v>0.01106250856102003</v>
+      </c>
+      <c r="I55">
+        <v>0.02228159618673141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1665302999734489</v>
+        <v>-0.1626654058950918</v>
       </c>
       <c r="C56">
-        <v>-0.0443285837628629</v>
+        <v>-0.01718733860078228</v>
       </c>
       <c r="D56">
-        <v>0.07663961067328282</v>
+        <v>-0.0005610461783529102</v>
       </c>
       <c r="E56">
-        <v>-0.02898833909683018</v>
+        <v>-0.08702841252531213</v>
       </c>
       <c r="F56">
-        <v>-0.1040702249912885</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09390393421477106</v>
+      </c>
+      <c r="G56">
+        <v>-0.03751413842969416</v>
+      </c>
+      <c r="H56">
+        <v>0.006086120580305464</v>
+      </c>
+      <c r="I56">
+        <v>0.04419335441949587</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08553336906783073</v>
+        <v>-0.06713824899894129</v>
       </c>
       <c r="C57">
-        <v>0.02215024836500963</v>
+        <v>-0.03285128941072517</v>
       </c>
       <c r="D57">
-        <v>0.03038026625783792</v>
+        <v>-0.01913198422067048</v>
       </c>
       <c r="E57">
-        <v>0.03103235416169718</v>
+        <v>-0.005190214335818647</v>
       </c>
       <c r="F57">
-        <v>0.04125489220599679</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06651868959761216</v>
+      </c>
+      <c r="G57">
+        <v>0.02462116358247748</v>
+      </c>
+      <c r="H57">
+        <v>-0.01817034550230197</v>
+      </c>
+      <c r="I57">
+        <v>0.02672452388699427</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1983448083127628</v>
+        <v>-0.2111006559774249</v>
       </c>
       <c r="C58">
-        <v>0.03885517127927982</v>
+        <v>-0.1051385511833975</v>
       </c>
       <c r="D58">
-        <v>0.05298427048200289</v>
+        <v>-0.08833081890802444</v>
       </c>
       <c r="E58">
-        <v>0.04784603636366339</v>
+        <v>0.0113494411191055</v>
       </c>
       <c r="F58">
-        <v>0.1213818010010724</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2716039842021561</v>
+      </c>
+      <c r="G58">
+        <v>0.3609492635915421</v>
+      </c>
+      <c r="H58">
+        <v>0.3607032426024024</v>
+      </c>
+      <c r="I58">
+        <v>-0.6893639916800172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02354636774561823</v>
+        <v>-0.04989944974687205</v>
       </c>
       <c r="C59">
-        <v>-0.1907042382623347</v>
+        <v>0.2006426621490917</v>
       </c>
       <c r="D59">
-        <v>-0.05594082645113834</v>
+        <v>-0.0262823639933116</v>
       </c>
       <c r="E59">
-        <v>0.02517512481385853</v>
+        <v>0.01758884389160192</v>
       </c>
       <c r="F59">
-        <v>0.05134005963957262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.07050378790107602</v>
+      </c>
+      <c r="G59">
+        <v>-0.002692713593379245</v>
+      </c>
+      <c r="H59">
+        <v>-0.01698435608792763</v>
+      </c>
+      <c r="I59">
+        <v>0.0172968441059957</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1805153808173453</v>
+        <v>-0.190544294692166</v>
       </c>
       <c r="C60">
-        <v>-0.07838071709754728</v>
+        <v>0.04949785268488406</v>
       </c>
       <c r="D60">
-        <v>0.01902643137295024</v>
+        <v>-0.05146798327444514</v>
       </c>
       <c r="E60">
-        <v>0.07450958176687539</v>
+        <v>-0.01072916656439732</v>
       </c>
       <c r="F60">
-        <v>0.1855760611861567</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.2032123384546641</v>
+      </c>
+      <c r="G60">
+        <v>-0.3190146076256309</v>
+      </c>
+      <c r="H60">
+        <v>-0.03575945508637408</v>
+      </c>
+      <c r="I60">
+        <v>-0.03094365825518074</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04407228324086007</v>
+        <v>-0.03909132480508901</v>
       </c>
       <c r="C61">
-        <v>0.01388068604037673</v>
+        <v>-0.0326755618596607</v>
       </c>
       <c r="D61">
-        <v>0.01313994977036638</v>
+        <v>0.002698500672756018</v>
       </c>
       <c r="E61">
-        <v>-0.003893504989886192</v>
+        <v>-0.01085178760208159</v>
       </c>
       <c r="F61">
-        <v>0.03080017627307859</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03555364214456654</v>
+      </c>
+      <c r="G61">
+        <v>-0.005186822819059767</v>
+      </c>
+      <c r="H61">
+        <v>-0.0125283964205843</v>
+      </c>
+      <c r="I61">
+        <v>-0.004504092891149038</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.0427028662610642</v>
+        <v>-0.03134913874520319</v>
       </c>
       <c r="C63">
-        <v>0.01317240424411745</v>
+        <v>-0.02471087526596781</v>
       </c>
       <c r="D63">
-        <v>0.0253012516391498</v>
+        <v>-0.0008894947768843703</v>
       </c>
       <c r="E63">
-        <v>0.008086928897745342</v>
+        <v>-0.01541502135689003</v>
       </c>
       <c r="F63">
-        <v>0.03143795788185212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02742650271582196</v>
+      </c>
+      <c r="G63">
+        <v>0.051052087009592</v>
+      </c>
+      <c r="H63">
+        <v>-0.002840495032006117</v>
+      </c>
+      <c r="I63">
+        <v>0.03556887043647301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06272098747480716</v>
+        <v>-0.05613468985204023</v>
       </c>
       <c r="C64">
-        <v>0.02406370270645535</v>
+        <v>-0.03307990676844754</v>
       </c>
       <c r="D64">
-        <v>0.0273250360330431</v>
+        <v>0.0118504257643389</v>
       </c>
       <c r="E64">
-        <v>-0.02883156394633361</v>
+        <v>-0.02086258768567557</v>
       </c>
       <c r="F64">
-        <v>0.03026061184283933</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03796170287360082</v>
+      </c>
+      <c r="G64">
+        <v>0.03052713729067464</v>
+      </c>
+      <c r="H64">
+        <v>-0.05455921565077909</v>
+      </c>
+      <c r="I64">
+        <v>0.03615689148947306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02317215018738065</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01043365323213245</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.00569814758213516</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006439544494056495</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.005033930949771229</v>
+      </c>
+      <c r="G65">
+        <v>-0.01934304506968968</v>
+      </c>
+      <c r="H65">
+        <v>0.0170458176737935</v>
+      </c>
+      <c r="I65">
+        <v>-0.003693298888031887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.07991567245783468</v>
+        <v>-0.06774553707842178</v>
       </c>
       <c r="C66">
-        <v>0.03025951810705519</v>
+        <v>-0.05765271733012531</v>
       </c>
       <c r="D66">
-        <v>0.05162262480589931</v>
+        <v>-0.01010010217134613</v>
       </c>
       <c r="E66">
-        <v>3.839933810626713e-05</v>
+        <v>-0.04855078531133505</v>
       </c>
       <c r="F66">
-        <v>0.06952418312595925</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06620402327149208</v>
+      </c>
+      <c r="G66">
+        <v>-0.007321777663871523</v>
+      </c>
+      <c r="H66">
+        <v>-0.01098247786637358</v>
+      </c>
+      <c r="I66">
+        <v>0.041600983904396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05525145771494226</v>
+        <v>-0.04698648998540529</v>
       </c>
       <c r="C67">
-        <v>-0.00909476504532003</v>
+        <v>0.001261399532349184</v>
       </c>
       <c r="D67">
-        <v>0.006563747036735337</v>
+        <v>-0.001818410117079484</v>
       </c>
       <c r="E67">
-        <v>-0.00671709018382407</v>
+        <v>-0.01010219274171008</v>
       </c>
       <c r="F67">
-        <v>0.01614032167655844</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03622603667702279</v>
+      </c>
+      <c r="G67">
+        <v>0.01176638977658128</v>
+      </c>
+      <c r="H67">
+        <v>-0.03569220104375535</v>
+      </c>
+      <c r="I67">
+        <v>-0.02490337717116813</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03931655119153057</v>
+        <v>-0.06111857047083923</v>
       </c>
       <c r="C68">
-        <v>-0.2255441523964591</v>
+        <v>0.2359308486503588</v>
       </c>
       <c r="D68">
-        <v>-0.09067687001618503</v>
+        <v>-0.02735103982646019</v>
       </c>
       <c r="E68">
-        <v>0.03452857126678627</v>
+        <v>0.03913237985418434</v>
       </c>
       <c r="F68">
-        <v>0.04793659546520067</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05160912270460634</v>
+      </c>
+      <c r="G68">
+        <v>0.02122455348250947</v>
+      </c>
+      <c r="H68">
+        <v>0.003273793982489617</v>
+      </c>
+      <c r="I68">
+        <v>0.03918302110591254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.08102217227940683</v>
+        <v>-0.07273528665356919</v>
       </c>
       <c r="C69">
-        <v>0.002426502813040536</v>
+        <v>-0.02093347014604136</v>
       </c>
       <c r="D69">
-        <v>0.02823606190515125</v>
+        <v>-0.005276400813538152</v>
       </c>
       <c r="E69">
-        <v>0.0002160433406783024</v>
+        <v>-0.03194638905139977</v>
       </c>
       <c r="F69">
-        <v>-0.01939785604546108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.005330547207150636</v>
+      </c>
+      <c r="G69">
+        <v>0.03841491140614863</v>
+      </c>
+      <c r="H69">
+        <v>-0.02033907668529305</v>
+      </c>
+      <c r="I69">
+        <v>0.01747605293721009</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.03689308833626458</v>
+        <v>-0.05744442650985272</v>
       </c>
       <c r="C71">
-        <v>-0.2681147293216499</v>
+        <v>0.2558526114863758</v>
       </c>
       <c r="D71">
-        <v>-0.1045742772963628</v>
+        <v>-0.03243610526574971</v>
       </c>
       <c r="E71">
-        <v>0.07608544693781259</v>
+        <v>0.06436046051624988</v>
       </c>
       <c r="F71">
-        <v>0.0816036355187173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.0722586984264466</v>
+      </c>
+      <c r="G71">
+        <v>0.02643330423658504</v>
+      </c>
+      <c r="H71">
+        <v>-0.02138376629202347</v>
+      </c>
+      <c r="I71">
+        <v>0.04893814673430696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.126398325751658</v>
+        <v>-0.1227777351041108</v>
       </c>
       <c r="C72">
-        <v>-0.03223043381529442</v>
+        <v>-0.03576812845434686</v>
       </c>
       <c r="D72">
-        <v>0.05252522365095205</v>
+        <v>-0.007100216963226245</v>
       </c>
       <c r="E72">
-        <v>-0.003391932771478489</v>
+        <v>-0.07440717817466098</v>
       </c>
       <c r="F72">
-        <v>0.06871374129846722</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.08197250060470898</v>
+      </c>
+      <c r="G72">
+        <v>-0.03095415710200889</v>
+      </c>
+      <c r="H72">
+        <v>0.04745370862420561</v>
+      </c>
+      <c r="I72">
+        <v>-0.1183579291717489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2771852092446164</v>
+        <v>-0.2728533193502006</v>
       </c>
       <c r="C73">
-        <v>-0.1468099619141927</v>
+        <v>0.0692390546463701</v>
       </c>
       <c r="D73">
-        <v>-0.03471465727667226</v>
+        <v>-0.08986149035895868</v>
       </c>
       <c r="E73">
-        <v>0.1118299235509771</v>
+        <v>0.03459278307039822</v>
       </c>
       <c r="F73">
-        <v>0.3538100301849593</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.3141891515743938</v>
+      </c>
+      <c r="G73">
+        <v>-0.5370146159796337</v>
+      </c>
+      <c r="H73">
+        <v>0.01798208101424627</v>
+      </c>
+      <c r="I73">
+        <v>-0.1094129304342337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.153339049266658</v>
+        <v>-0.1492708388840032</v>
       </c>
       <c r="C74">
-        <v>0.0004400309562902717</v>
+        <v>-0.03438089388631825</v>
       </c>
       <c r="D74">
-        <v>0.04852616053198993</v>
+        <v>-0.01148916402062691</v>
       </c>
       <c r="E74">
-        <v>0.00631220101936459</v>
+        <v>-0.05332114125262054</v>
       </c>
       <c r="F74">
-        <v>-0.04639425843737367</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06611208278334045</v>
+      </c>
+      <c r="G74">
+        <v>-0.02721347788881712</v>
+      </c>
+      <c r="H74">
+        <v>0.008669874619640189</v>
+      </c>
+      <c r="I74">
+        <v>0.07116609978940579</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2244918308697905</v>
+        <v>-0.2452135129573087</v>
       </c>
       <c r="C75">
-        <v>-0.03008448029904045</v>
+        <v>-0.02080893258342682</v>
       </c>
       <c r="D75">
-        <v>0.08683203613147171</v>
+        <v>-0.02732791728121365</v>
       </c>
       <c r="E75">
-        <v>0.005334674076041574</v>
+        <v>-0.1153161472113014</v>
       </c>
       <c r="F75">
-        <v>-0.1426301352638299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1470672068780143</v>
+      </c>
+      <c r="G75">
+        <v>-0.01618672655962004</v>
+      </c>
+      <c r="H75">
+        <v>-0.01561959633871889</v>
+      </c>
+      <c r="I75">
+        <v>0.04397524371041273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.248087354666188</v>
+        <v>-0.2631979152405528</v>
       </c>
       <c r="C76">
-        <v>-0.06786727175468189</v>
+        <v>-0.009238657686944918</v>
       </c>
       <c r="D76">
-        <v>0.08417576361730784</v>
+        <v>0.01229555716799662</v>
       </c>
       <c r="E76">
-        <v>-0.06430517705846206</v>
+        <v>-0.1402195263385631</v>
       </c>
       <c r="F76">
-        <v>-0.1352643083468352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1838601432355345</v>
+      </c>
+      <c r="G76">
+        <v>-0.04208432766508819</v>
+      </c>
+      <c r="H76">
+        <v>0.05897259226248045</v>
+      </c>
+      <c r="I76">
+        <v>0.05768917600526124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1380003110551657</v>
+        <v>-0.119480888444981</v>
       </c>
       <c r="C77">
-        <v>0.06325595584561038</v>
+        <v>-0.0754628431014099</v>
       </c>
       <c r="D77">
-        <v>0.01117130747910553</v>
+        <v>-0.004600903768888334</v>
       </c>
       <c r="E77">
-        <v>0.01380931822634266</v>
+        <v>0.03242029014233569</v>
       </c>
       <c r="F77">
-        <v>0.1489698555109145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1583861205424163</v>
+      </c>
+      <c r="G77">
+        <v>0.2105738287144844</v>
+      </c>
+      <c r="H77">
+        <v>0.03392993771710128</v>
+      </c>
+      <c r="I77">
+        <v>0.2428040578226022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09615262941999449</v>
+        <v>-0.07273488140898107</v>
       </c>
       <c r="C78">
-        <v>0.07686450947725207</v>
+        <v>-0.07672561557418686</v>
       </c>
       <c r="D78">
-        <v>0.0178512129987046</v>
+        <v>0.007784210211886004</v>
       </c>
       <c r="E78">
-        <v>-0.009041273602508981</v>
+        <v>-0.008550675853967685</v>
       </c>
       <c r="F78">
-        <v>0.04834582901839807</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.06641695620020771</v>
+      </c>
+      <c r="G78">
+        <v>0.01754721822854044</v>
+      </c>
+      <c r="H78">
+        <v>-0.01774994751555464</v>
+      </c>
+      <c r="I78">
+        <v>0.04562585179893719</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1023105480163486</v>
+        <v>-0.13611703404641</v>
       </c>
       <c r="C80">
-        <v>0.0009409530281110543</v>
+        <v>0.083549144218383</v>
       </c>
       <c r="D80">
-        <v>-0.2934207368938047</v>
+        <v>0.9731301548365868</v>
       </c>
       <c r="E80">
-        <v>-0.9229826569010493</v>
+        <v>0.0523799356692477</v>
       </c>
       <c r="F80">
-        <v>0.09259415765055862</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.04629573666771653</v>
+      </c>
+      <c r="G80">
+        <v>-0.02905234934618576</v>
+      </c>
+      <c r="H80">
+        <v>-0.03695750189363736</v>
+      </c>
+      <c r="I80">
+        <v>-0.09635299031705001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1579563015831717</v>
+        <v>-0.1809611640368805</v>
       </c>
       <c r="C81">
-        <v>-0.01851317710114823</v>
+        <v>-0.008724694845102913</v>
       </c>
       <c r="D81">
-        <v>0.04839714626347449</v>
+        <v>-0.006503835776603915</v>
       </c>
       <c r="E81">
-        <v>-0.01287294219578421</v>
+        <v>-0.08778910406493287</v>
       </c>
       <c r="F81">
-        <v>-0.1785860317357939</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1609595256521256</v>
+      </c>
+      <c r="G81">
+        <v>0.001820416673500908</v>
+      </c>
+      <c r="H81">
+        <v>0.02711668046857498</v>
+      </c>
+      <c r="I81">
+        <v>0.01499251731994129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09434971037083277</v>
+        <v>-0.06971863527383247</v>
       </c>
       <c r="C83">
-        <v>0.08843474452868144</v>
+        <v>-0.05835622215036945</v>
       </c>
       <c r="D83">
-        <v>-0.01587286012187086</v>
+        <v>-0.01176485838077887</v>
       </c>
       <c r="E83">
-        <v>0.03862009147285835</v>
+        <v>0.03365184685254492</v>
       </c>
       <c r="F83">
-        <v>0.01252409628516417</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04398828876474021</v>
+      </c>
+      <c r="G83">
+        <v>0.05086039637121171</v>
+      </c>
+      <c r="H83">
+        <v>-0.06535444956597028</v>
+      </c>
+      <c r="I83">
+        <v>0.05119152950805859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2356317803062957</v>
+        <v>-0.249329893420578</v>
       </c>
       <c r="C85">
-        <v>0.006828660903285742</v>
+        <v>-0.05131543916157729</v>
       </c>
       <c r="D85">
-        <v>0.07607459954714053</v>
+        <v>-0.00555049043780457</v>
       </c>
       <c r="E85">
-        <v>-0.0573820347048174</v>
+        <v>-0.1125587950860402</v>
       </c>
       <c r="F85">
-        <v>-0.1556058540162167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1853138464044771</v>
+      </c>
+      <c r="G85">
+        <v>0.006549467744547806</v>
+      </c>
+      <c r="H85">
+        <v>0.02337368557214397</v>
+      </c>
+      <c r="I85">
+        <v>0.07400957089209322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04188243658928017</v>
+        <v>-0.02815872217350163</v>
       </c>
       <c r="C86">
-        <v>0.0446889320149917</v>
+        <v>-0.0543319198114427</v>
       </c>
       <c r="D86">
-        <v>0.03694230677097902</v>
+        <v>-0.0001492216618813291</v>
       </c>
       <c r="E86">
-        <v>0.006394827941918642</v>
+        <v>-0.01752286799934058</v>
       </c>
       <c r="F86">
-        <v>0.06337009528840917</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.07869227732898541</v>
+      </c>
+      <c r="G86">
+        <v>0.06417791022619636</v>
+      </c>
+      <c r="H86">
+        <v>-0.00334894326612594</v>
+      </c>
+      <c r="I86">
+        <v>0.05589754675495986</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02022336499349263</v>
+        <v>-0.02800376237829756</v>
       </c>
       <c r="C87">
-        <v>-0.03669919751218204</v>
+        <v>0.002689649816890155</v>
       </c>
       <c r="D87">
-        <v>-0.01358019967753391</v>
+        <v>0.003675374234379187</v>
       </c>
       <c r="E87">
-        <v>0.006503608037515976</v>
+        <v>0.002755261517770138</v>
       </c>
       <c r="F87">
-        <v>0.08838887210920585</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.09622347435581105</v>
+      </c>
+      <c r="G87">
+        <v>0.02446335575133175</v>
+      </c>
+      <c r="H87">
+        <v>0.01625589220633368</v>
+      </c>
+      <c r="I87">
+        <v>0.02759007952959577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03232009147148783</v>
+        <v>-0.03547406597506537</v>
       </c>
       <c r="C88">
-        <v>0.02175713707775341</v>
+        <v>-0.01001326262577721</v>
       </c>
       <c r="D88">
-        <v>0.01421862074796037</v>
+        <v>0.005952370040411456</v>
       </c>
       <c r="E88">
-        <v>-0.02311259831057135</v>
+        <v>-0.006501818232914923</v>
       </c>
       <c r="F88">
-        <v>-0.02402058454578303</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01868599700005755</v>
+      </c>
+      <c r="G88">
+        <v>0.0240856315965591</v>
+      </c>
+      <c r="H88">
+        <v>-0.04320103984338233</v>
+      </c>
+      <c r="I88">
+        <v>0.00561222846201785</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.04410282453206406</v>
+        <v>-0.08907928389011549</v>
       </c>
       <c r="C89">
-        <v>-0.3398791904324431</v>
+        <v>0.3854184235283511</v>
       </c>
       <c r="D89">
-        <v>-0.1874901200053041</v>
+        <v>-0.06172839706222916</v>
       </c>
       <c r="E89">
-        <v>0.08566792309032009</v>
+        <v>0.07457348249389797</v>
       </c>
       <c r="F89">
-        <v>0.004716919673561033</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.03654221427287726</v>
+      </c>
+      <c r="G89">
+        <v>0.1074879101986762</v>
+      </c>
+      <c r="H89">
+        <v>-0.0407133665188576</v>
+      </c>
+      <c r="I89">
+        <v>0.09068454424307851</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.03451128985682081</v>
+        <v>-0.058704257696874</v>
       </c>
       <c r="C90">
-        <v>-0.2828274754788964</v>
+        <v>0.3277590405519852</v>
       </c>
       <c r="D90">
-        <v>-0.1474079616494244</v>
+        <v>-0.0352365082582629</v>
       </c>
       <c r="E90">
-        <v>0.02534167963375131</v>
+        <v>0.06756173163083738</v>
       </c>
       <c r="F90">
-        <v>0.06806803198129394</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04223256710710264</v>
+      </c>
+      <c r="G90">
+        <v>0.05294919844195151</v>
+      </c>
+      <c r="H90">
+        <v>-0.01175330666303966</v>
+      </c>
+      <c r="I90">
+        <v>0.06523390205735045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2682597050755789</v>
+        <v>-0.2859882689534237</v>
       </c>
       <c r="C91">
-        <v>0.006678568924507219</v>
+        <v>-0.05179547412657917</v>
       </c>
       <c r="D91">
-        <v>0.07603842746698318</v>
+        <v>-0.01497547690277847</v>
       </c>
       <c r="E91">
-        <v>-0.04120648980907712</v>
+        <v>-0.1069778921269343</v>
       </c>
       <c r="F91">
-        <v>-0.2663229953328176</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2701920266403407</v>
+      </c>
+      <c r="G91">
+        <v>-0.01189697916868636</v>
+      </c>
+      <c r="H91">
+        <v>0.04753414432849867</v>
+      </c>
+      <c r="I91">
+        <v>0.06095726657934113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06555402151645537</v>
+        <v>-0.1267337566490665</v>
       </c>
       <c r="C92">
-        <v>-0.3079181186220766</v>
+        <v>0.3783670868070763</v>
       </c>
       <c r="D92">
-        <v>-0.2247496293029257</v>
+        <v>-0.02324761402763268</v>
       </c>
       <c r="E92">
-        <v>0.006870962376650238</v>
+        <v>0.09113950063335628</v>
       </c>
       <c r="F92">
-        <v>-0.1065323593820599</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1206658643614999</v>
+      </c>
+      <c r="G92">
+        <v>0.3189050947689593</v>
+      </c>
+      <c r="H92">
+        <v>0.0562717294280954</v>
+      </c>
+      <c r="I92">
+        <v>-0.1113594485410067</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.03005787580181427</v>
+        <v>-0.07480310438977235</v>
       </c>
       <c r="C93">
-        <v>-0.3368992150586176</v>
+        <v>0.3962187461516383</v>
       </c>
       <c r="D93">
-        <v>-0.1970347631939602</v>
+        <v>-0.05404222280663843</v>
       </c>
       <c r="E93">
-        <v>0.04622462250490671</v>
+        <v>0.1102975345875548</v>
       </c>
       <c r="F93">
-        <v>-0.008538349096511822</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.003901397199414295</v>
+      </c>
+      <c r="G93">
+        <v>0.02961007655924856</v>
+      </c>
+      <c r="H93">
+        <v>-0.05271788447553886</v>
+      </c>
+      <c r="I93">
+        <v>0.00440900198533327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.278158384046198</v>
+        <v>-0.3098148262641352</v>
       </c>
       <c r="C94">
-        <v>-0.1187979904892307</v>
+        <v>0.04114905081711683</v>
       </c>
       <c r="D94">
-        <v>0.007834427576727138</v>
+        <v>-0.0447158337001195</v>
       </c>
       <c r="E94">
-        <v>-0.0162122668510131</v>
+        <v>-0.1177861043884106</v>
       </c>
       <c r="F94">
-        <v>-0.3305365073381676</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3142200443739193</v>
+      </c>
+      <c r="G94">
+        <v>0.04666571512424828</v>
+      </c>
+      <c r="H94">
+        <v>0.2180398460647592</v>
+      </c>
+      <c r="I94">
+        <v>0.01496023489909845</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1714247226455058</v>
+        <v>-0.1313359675653661</v>
       </c>
       <c r="C95">
-        <v>0.05345128185953302</v>
+        <v>-0.05557873161726039</v>
       </c>
       <c r="D95">
-        <v>0.0134117891358282</v>
+        <v>-0.08113044214935784</v>
       </c>
       <c r="E95">
-        <v>0.07510314279171572</v>
+        <v>-0.03012533146743552</v>
       </c>
       <c r="F95">
-        <v>-0.4145753817204768</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1136722993399372</v>
+      </c>
+      <c r="G95">
+        <v>0.1202694079420276</v>
+      </c>
+      <c r="H95">
+        <v>-0.8660482112825257</v>
+      </c>
+      <c r="I95">
+        <v>-0.35776980206228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2057622581465506</v>
+        <v>-0.2086189924909948</v>
       </c>
       <c r="C98">
-        <v>-0.08991878733003189</v>
+        <v>0.06275831390439843</v>
       </c>
       <c r="D98">
-        <v>-0.02541175402052521</v>
+        <v>-0.0648630724749665</v>
       </c>
       <c r="E98">
-        <v>0.08725324731137354</v>
+        <v>0.02707370490082552</v>
       </c>
       <c r="F98">
-        <v>0.09988078485473802</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1723115113148785</v>
+      </c>
+      <c r="G98">
+        <v>-0.3424739995775784</v>
+      </c>
+      <c r="H98">
+        <v>-0.02348591876491306</v>
+      </c>
+      <c r="I98">
+        <v>-0.110893870800734</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.03220450505760858</v>
+        <v>-0.01788287615104387</v>
       </c>
       <c r="C101">
-        <v>0.01794893588786619</v>
+        <v>-0.0312332583233551</v>
       </c>
       <c r="D101">
-        <v>0.03571966278244849</v>
+        <v>0.005876400525340649</v>
       </c>
       <c r="E101">
-        <v>-0.01594079904138439</v>
+        <v>-0.03744583439876863</v>
       </c>
       <c r="F101">
-        <v>0.01892558484781643</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.06196134361476194</v>
+      </c>
+      <c r="G101">
+        <v>0.1110252525628992</v>
+      </c>
+      <c r="H101">
+        <v>0.02992534942601648</v>
+      </c>
+      <c r="I101">
+        <v>-0.1154288716336049</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1011160675067359</v>
+        <v>-0.1166598379324906</v>
       </c>
       <c r="C102">
-        <v>0.01359427235663461</v>
+        <v>-0.02562136494755802</v>
       </c>
       <c r="D102">
-        <v>0.04789135767283489</v>
+        <v>0.005600014141585873</v>
       </c>
       <c r="E102">
-        <v>-0.04070468660337873</v>
+        <v>-0.05369137335740692</v>
       </c>
       <c r="F102">
-        <v>-0.09906208112935812</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1159708408509766</v>
+      </c>
+      <c r="G102">
+        <v>0.0003657422917156302</v>
+      </c>
+      <c r="H102">
+        <v>0.00263121991576085</v>
+      </c>
+      <c r="I102">
+        <v>0.05493712284093864</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01974234790021495</v>
+        <v>-0.0289683595608406</v>
       </c>
       <c r="C103">
-        <v>0.00463625009094811</v>
+        <v>-0.008621715628572181</v>
       </c>
       <c r="D103">
-        <v>0.01604277718574327</v>
+        <v>0.009293410706504211</v>
       </c>
       <c r="E103">
-        <v>-0.006723635265297922</v>
+        <v>-0.01917350904965212</v>
       </c>
       <c r="F103">
-        <v>-0.03639828230206651</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02755600900331443</v>
+      </c>
+      <c r="G103">
+        <v>0.01814726724844805</v>
+      </c>
+      <c r="H103">
+        <v>-0.007351071325372466</v>
+      </c>
+      <c r="I103">
+        <v>0.01338150750867144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
